--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courses\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74322223-3AEA-4FC4-8AEF-875A9C622E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BCD027-D5CB-4A23-BE03-9072D1F35540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="477">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1447,6 +1447,15 @@
   </si>
   <si>
     <t>traverse the string{[]]() and Push every opening parenthesis in stck and then compare top with the closing parenthesis. If they are equal return 1 else return 0 if stack is empty and there are more elements to be traversed  then also return 0 otherwise when all string is traversed and the stact is empty then return 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to find the Kth min we can sort the array in descending order using sort(a,a+n,greater&lt;int&gt;()) and return a[k-1]  to find max jusr sort(a,a+n) and return a[k-1] </t>
+  </si>
+  <si>
+    <t>take 3 pointing variable high low mid, high at n-1 and low,mid at 0 and now traverse the array while m&lt;=h and if a[mid]=0 swap array low and mid values ,l++,m++, else if a[m]=1 m++,else if arr[m]=2 swap high and mid,h--</t>
+  </si>
+  <si>
+    <t>traverse the array using i=0,j=0 and if a[i] is less than 0 and if a[i]!=a[j] then swap a[i],a[j] if not then just j++</t>
   </si>
 </sst>
 </file>
@@ -1904,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1927,7 +1936,7 @@
       </c>
       <c r="F1" s="2">
         <f>SUM(F6:F481)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2">
         <v>450</v>
@@ -1991,13 +2000,14 @@
         <v>468</v>
       </c>
       <c r="F7" s="2">
+        <f>IF(A7=1,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21">
+    <row r="8" spans="1:7" ht="46.8">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>4</v>
@@ -2006,13 +2016,20 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="21">
+        <v>467</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F71" si="1">IF(A8=1,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="46.8">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>4</v>
@@ -2021,13 +2038,20 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="21">
+        <v>467</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>4</v>
@@ -2036,7 +2060,14 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21">
@@ -2053,6 +2084,10 @@
       <c r="D11" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F11" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="21">
       <c r="A12" s="2">
@@ -2068,6 +2103,10 @@
       <c r="D12" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F12" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="21">
       <c r="A13" s="2">
@@ -2083,6 +2122,10 @@
       <c r="D13" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F13" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="2">
@@ -2098,6 +2141,10 @@
       <c r="D14" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F14" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="21">
       <c r="A15" s="2">
@@ -2113,6 +2160,10 @@
       <c r="D15" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F15" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="2">
@@ -2128,8 +2179,12 @@
       <c r="D16" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="21">
+      <c r="F16" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2143,8 +2198,12 @@
       <c r="D17" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="21">
+      <c r="F17" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2158,8 +2217,12 @@
       <c r="D18" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="21">
+      <c r="F18" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2173,8 +2236,12 @@
       <c r="D19" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="21">
+      <c r="F19" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2188,8 +2255,12 @@
       <c r="D20" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="21">
+      <c r="F20" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2203,8 +2274,12 @@
       <c r="D21" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="21">
+      <c r="F21" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2218,8 +2293,12 @@
       <c r="D22" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="21">
+      <c r="F22" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2233,8 +2312,12 @@
       <c r="D23" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="21">
+      <c r="F23" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2248,8 +2331,12 @@
       <c r="D24" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="21">
+      <c r="F24" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2263,8 +2350,12 @@
       <c r="D25" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="21">
+      <c r="F25" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2278,8 +2369,12 @@
       <c r="D26" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="21">
+      <c r="F26" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2293,8 +2388,12 @@
       <c r="D27" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="21">
+      <c r="F27" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2308,8 +2407,12 @@
       <c r="D28" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="21">
+      <c r="F28" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2323,8 +2426,12 @@
       <c r="D29" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="21">
+      <c r="F29" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="21">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2338,8 +2445,12 @@
       <c r="D30" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="21">
+      <c r="F30" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="21">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2353,8 +2464,12 @@
       <c r="D31" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="21">
+      <c r="F31" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="21">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2368,8 +2483,12 @@
       <c r="D32" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="21">
+      <c r="F32" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="21">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2383,8 +2502,12 @@
       <c r="D33" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="21">
+      <c r="F33" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="21">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2398,8 +2521,12 @@
       <c r="D34" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="21">
+      <c r="F34" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="21">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2413,8 +2540,12 @@
       <c r="D35" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="21">
+      <c r="F35" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="21">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2428,8 +2559,12 @@
       <c r="D36" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="21">
+      <c r="F36" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="21">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2443,8 +2578,12 @@
       <c r="D37" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="21">
+      <c r="F37" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="21">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2458,8 +2597,12 @@
       <c r="D38" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="21">
+      <c r="F38" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="21">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2473,8 +2616,12 @@
       <c r="D39" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="21">
+      <c r="F39" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="21">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2488,8 +2635,12 @@
       <c r="D40" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="21">
+      <c r="F40" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="21">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2503,15 +2654,27 @@
       <c r="D41" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="21">
+      <c r="F41" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="21">
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" ht="21">
+      <c r="F42" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="21">
       <c r="B43" s="6"/>
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" ht="21">
+      <c r="F43" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="21">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2525,8 +2688,12 @@
       <c r="D44" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="21">
+      <c r="F44" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="21">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2540,8 +2707,12 @@
       <c r="D45" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="21">
+      <c r="F45" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="21">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2555,8 +2726,12 @@
       <c r="D46" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="21">
+      <c r="F46" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="21">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2570,8 +2745,12 @@
       <c r="D47" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="21">
+      <c r="F47" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="21">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2584,6 +2763,10 @@
       </c>
       <c r="D48" s="2" t="s">
         <v>464</v>
+      </c>
+      <c r="F48" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="21">
@@ -2600,6 +2783,10 @@
       <c r="D49" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F49" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="21">
       <c r="A50" s="2">
@@ -2615,6 +2802,10 @@
       <c r="D50" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F50" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="21">
       <c r="A51" s="2">
@@ -2630,6 +2821,10 @@
       <c r="D51" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F51" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="21">
       <c r="A52" s="2">
@@ -2645,6 +2840,10 @@
       <c r="D52" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F52" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="21">
       <c r="A53" s="2">
@@ -2660,10 +2859,24 @@
       <c r="D53" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F53" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="F54" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="21">
       <c r="B55" s="6"/>
       <c r="C55" s="1"/>
+      <c r="F55" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="21">
       <c r="A56" s="2">
@@ -2683,6 +2896,7 @@
         <v>469</v>
       </c>
       <c r="F56" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2704,6 +2918,7 @@
         <v>470</v>
       </c>
       <c r="F57" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2725,6 +2940,7 @@
         <v>471</v>
       </c>
       <c r="F58" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2746,6 +2962,7 @@
         <v>472</v>
       </c>
       <c r="F59" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2763,6 +2980,10 @@
       <c r="D60" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F60" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="21">
       <c r="A61" s="2">
@@ -2778,6 +2999,10 @@
       <c r="D61" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F61" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="21">
       <c r="A62" s="2">
@@ -2793,6 +3018,10 @@
       <c r="D62" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F62" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="21">
       <c r="A63" s="2">
@@ -2808,6 +3037,10 @@
       <c r="D63" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F63" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="21">
       <c r="A64" s="2">
@@ -2823,6 +3056,10 @@
       <c r="D64" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F64" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="21">
       <c r="A65" s="2">
@@ -2838,6 +3075,10 @@
       <c r="D65" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F65" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="21">
       <c r="A66" s="2">
@@ -2853,6 +3094,10 @@
       <c r="D66" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F66" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:6" ht="21">
       <c r="A67" s="2">
@@ -2868,6 +3113,10 @@
       <c r="D67" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F67" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="21">
       <c r="A68" s="2">
@@ -2883,6 +3132,10 @@
       <c r="D68" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F68" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:6" ht="21">
       <c r="A69" s="2">
@@ -2898,6 +3151,10 @@
       <c r="D69" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F69" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="21">
       <c r="A70" s="2">
@@ -2913,10 +3170,14 @@
       <c r="D70" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F70" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:6" ht="62.4">
       <c r="A71" s="2">
-        <f t="shared" ref="A71:A134" si="1">IF(D71="NO",0,1)</f>
+        <f t="shared" ref="A71:A134" si="2">IF(D71="NO",0,1)</f>
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -2932,12 +3193,13 @@
         <v>473</v>
       </c>
       <c r="F71" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="21">
       <c r="A72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -2949,10 +3211,14 @@
       <c r="D72" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F72" s="2" t="b">
+        <f t="shared" ref="F72:F135" si="3">IF(A72=1,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:6" ht="21">
       <c r="A73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -2964,10 +3230,14 @@
       <c r="D73" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F73" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="21">
       <c r="A74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -2979,10 +3249,14 @@
       <c r="D74" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F74" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="21">
       <c r="A75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -2994,10 +3268,14 @@
       <c r="D75" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F75" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="21">
       <c r="A76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -3009,10 +3287,14 @@
       <c r="D76" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F76" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:6" ht="21">
       <c r="A77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -3024,10 +3306,14 @@
       <c r="D77" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F77" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="21">
       <c r="A78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -3039,10 +3325,14 @@
       <c r="D78" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F78" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:6" ht="21">
       <c r="A79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B79" s="6" t="s">
@@ -3054,10 +3344,14 @@
       <c r="D79" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F79" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:6" ht="21">
       <c r="A80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -3069,10 +3363,14 @@
       <c r="D80" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="21">
+      <c r="F80" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="21">
       <c r="A81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -3084,10 +3382,14 @@
       <c r="D81" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="21">
+      <c r="F81" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="21">
       <c r="A82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -3099,10 +3401,14 @@
       <c r="D82" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="21">
+      <c r="F82" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="21">
       <c r="A83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -3114,10 +3420,14 @@
       <c r="D83" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="21">
+      <c r="F83" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="21">
       <c r="A84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -3129,10 +3439,14 @@
       <c r="D84" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="21">
+      <c r="F84" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="21">
       <c r="A85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -3144,10 +3458,14 @@
       <c r="D85" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="21">
+      <c r="F85" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="21">
       <c r="A86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3159,10 +3477,14 @@
       <c r="D86" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="21">
+      <c r="F86" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="21">
       <c r="A87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -3174,10 +3496,14 @@
       <c r="D87" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="21">
+      <c r="F87" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="21">
       <c r="A88" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -3189,10 +3515,14 @@
       <c r="D88" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="21">
+      <c r="F88" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="21">
       <c r="A89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -3204,10 +3534,14 @@
       <c r="D89" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="21">
+      <c r="F89" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="21">
       <c r="A90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3219,10 +3553,14 @@
       <c r="D90" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="21">
+      <c r="F90" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="21">
       <c r="A91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -3234,10 +3572,14 @@
       <c r="D91" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="21">
+      <c r="F91" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="21">
       <c r="A92" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -3249,10 +3591,14 @@
       <c r="D92" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="21">
+      <c r="F92" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="21">
       <c r="A93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -3264,10 +3610,14 @@
       <c r="D93" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="21">
+      <c r="F93" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="21">
       <c r="A94" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -3279,10 +3629,14 @@
       <c r="D94" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="21">
+      <c r="F94" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="21">
       <c r="A95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -3294,10 +3648,14 @@
       <c r="D95" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="21">
+      <c r="F95" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="21">
       <c r="A96" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -3309,10 +3667,14 @@
       <c r="D96" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="21">
+      <c r="F96" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="21">
       <c r="A97" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -3324,10 +3686,14 @@
       <c r="D97" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="21">
+      <c r="F97" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="21">
       <c r="A98" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -3339,14 +3705,28 @@
       <c r="D98" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="21">
+      <c r="F98" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="F99" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="21">
       <c r="B100" s="9"/>
       <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" ht="21">
+      <c r="F100" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="21">
       <c r="A101" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B101" s="6" t="s">
@@ -3358,10 +3738,14 @@
       <c r="D101" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="21">
+      <c r="F101" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="21">
       <c r="A102" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -3373,10 +3757,14 @@
       <c r="D102" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="21">
+      <c r="F102" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="21">
       <c r="A103" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B103" s="6" t="s">
@@ -3388,10 +3776,14 @@
       <c r="D103" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="21">
+      <c r="F103" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="21">
       <c r="A104" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -3403,10 +3795,14 @@
       <c r="D104" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="21">
+      <c r="F104" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="21">
       <c r="A105" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -3418,10 +3814,14 @@
       <c r="D105" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="21">
+      <c r="F105" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="21">
       <c r="A106" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B106" s="6" t="s">
@@ -3433,10 +3833,14 @@
       <c r="D106" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="21">
+      <c r="F106" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="21">
       <c r="A107" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -3448,10 +3852,14 @@
       <c r="D107" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="21">
+      <c r="F107" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="21">
       <c r="A108" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -3463,10 +3871,14 @@
       <c r="D108" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="21">
+      <c r="F108" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="21">
       <c r="A109" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -3478,10 +3890,14 @@
       <c r="D109" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="21">
+      <c r="F109" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="21">
       <c r="A110" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B110" s="6" t="s">
@@ -3493,10 +3909,14 @@
       <c r="D110" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="21">
+      <c r="F110" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="21">
       <c r="A111" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -3508,10 +3928,14 @@
       <c r="D111" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="21">
+      <c r="F111" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="21">
       <c r="A112" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -3523,10 +3947,14 @@
       <c r="D112" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="21">
+      <c r="F112" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="21">
       <c r="A113" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -3538,10 +3966,14 @@
       <c r="D113" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="21">
+      <c r="F113" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="21">
       <c r="A114" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B114" s="6" t="s">
@@ -3553,10 +3985,14 @@
       <c r="D114" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="21">
+      <c r="F114" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="21">
       <c r="A115" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -3568,10 +4004,14 @@
       <c r="D115" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="21">
+      <c r="F115" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="21">
       <c r="A116" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B116" s="6" t="s">
@@ -3583,10 +4023,14 @@
       <c r="D116" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="21">
+      <c r="F116" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="21">
       <c r="A117" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B117" s="6" t="s">
@@ -3598,10 +4042,14 @@
       <c r="D117" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="21">
+      <c r="F117" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="21">
       <c r="A118" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -3613,10 +4061,14 @@
       <c r="D118" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="21">
+      <c r="F118" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="21">
       <c r="A119" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B119" s="6" t="s">
@@ -3628,10 +4080,14 @@
       <c r="D119" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="21">
+      <c r="F119" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="21">
       <c r="A120" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -3643,10 +4099,14 @@
       <c r="D120" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="21">
+      <c r="F120" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="21">
       <c r="A121" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B121" s="6" t="s">
@@ -3658,10 +4118,14 @@
       <c r="D121" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="21">
+      <c r="F121" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="21">
       <c r="A122" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B122" s="6" t="s">
@@ -3673,10 +4137,14 @@
       <c r="D122" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="21">
+      <c r="F122" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="21">
       <c r="A123" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -3688,10 +4156,14 @@
       <c r="D123" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="21">
+      <c r="F123" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="21">
       <c r="A124" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -3703,10 +4175,14 @@
       <c r="D124" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="21">
+      <c r="F124" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="21">
       <c r="A125" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -3718,10 +4194,14 @@
       <c r="D125" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="21">
+      <c r="F125" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="21">
       <c r="A126" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -3733,10 +4213,14 @@
       <c r="D126" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="21">
+      <c r="F126" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="21">
       <c r="A127" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B127" s="6" t="s">
@@ -3748,10 +4232,14 @@
       <c r="D127" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="21">
+      <c r="F127" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="21">
       <c r="A128" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B128" s="6" t="s">
@@ -3763,10 +4251,14 @@
       <c r="D128" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="21">
+      <c r="F128" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="21">
       <c r="A129" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B129" s="6" t="s">
@@ -3778,10 +4270,14 @@
       <c r="D129" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="21">
+      <c r="F129" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="21">
       <c r="A130" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B130" s="6" t="s">
@@ -3793,10 +4289,14 @@
       <c r="D130" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="21">
+      <c r="F130" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="21">
       <c r="A131" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -3808,10 +4308,14 @@
       <c r="D131" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="21">
+      <c r="F131" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="21">
       <c r="A132" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -3823,10 +4327,14 @@
       <c r="D132" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="21">
+      <c r="F132" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="21">
       <c r="A133" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B133" s="6" t="s">
@@ -3838,10 +4346,14 @@
       <c r="D133" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="21">
+      <c r="F133" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="21">
       <c r="A134" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -3853,10 +4365,14 @@
       <c r="D134" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="21">
+      <c r="F134" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="21">
       <c r="A135" s="2">
-        <f t="shared" ref="A135:A198" si="2">IF(D135="NO",0,1)</f>
+        <f t="shared" ref="A135:A198" si="4">IF(D135="NO",0,1)</f>
         <v>0</v>
       </c>
       <c r="B135" s="6" t="s">
@@ -3868,10 +4384,14 @@
       <c r="D135" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="21">
+      <c r="F135" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="21">
       <c r="A136" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B136" s="6" t="s">
@@ -3883,13 +4403,27 @@
       <c r="D136" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="21">
+      <c r="F136" s="2" t="b">
+        <f t="shared" ref="F136:F199" si="5">IF(A136=1,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="F137" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="21">
       <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:4" ht="21">
+      <c r="F138" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="21">
       <c r="A139" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -3901,10 +4435,14 @@
       <c r="D139" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="21">
+      <c r="F139" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="21">
       <c r="A140" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B140" s="9" t="s">
@@ -3916,10 +4454,14 @@
       <c r="D140" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="21">
+      <c r="F140" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="21">
       <c r="A141" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -3931,10 +4473,14 @@
       <c r="D141" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="21">
+      <c r="F141" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="21">
       <c r="A142" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -3946,10 +4492,14 @@
       <c r="D142" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="21">
+      <c r="F142" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="21">
       <c r="A143" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -3961,10 +4511,14 @@
       <c r="D143" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="21">
+      <c r="F143" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="21">
       <c r="A144" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B144" s="9" t="s">
@@ -3976,10 +4530,14 @@
       <c r="D144" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="21">
+      <c r="F144" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="21">
       <c r="A145" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B145" s="9" t="s">
@@ -3991,10 +4549,14 @@
       <c r="D145" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="21">
+      <c r="F145" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="21">
       <c r="A146" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B146" s="9" t="s">
@@ -4006,10 +4568,14 @@
       <c r="D146" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="21">
+      <c r="F146" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="21">
       <c r="A147" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B147" s="9" t="s">
@@ -4021,10 +4587,14 @@
       <c r="D147" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="21">
+      <c r="F147" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="21">
       <c r="A148" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B148" s="9" t="s">
@@ -4036,10 +4606,14 @@
       <c r="D148" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="21">
+      <c r="F148" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="21">
       <c r="A149" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B149" s="9" t="s">
@@ -4051,10 +4625,14 @@
       <c r="D149" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="21">
+      <c r="F149" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="21">
       <c r="A150" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B150" s="9" t="s">
@@ -4066,10 +4644,14 @@
       <c r="D150" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="21">
+      <c r="F150" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="21">
       <c r="A151" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B151" s="9" t="s">
@@ -4081,10 +4663,14 @@
       <c r="D151" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="21">
+      <c r="F151" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="21">
       <c r="A152" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B152" s="9" t="s">
@@ -4096,10 +4682,14 @@
       <c r="D152" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="21">
+      <c r="F152" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="21">
       <c r="A153" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B153" s="9" t="s">
@@ -4111,10 +4701,14 @@
       <c r="D153" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="21">
+      <c r="F153" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="21">
       <c r="A154" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B154" s="9" t="s">
@@ -4126,10 +4720,14 @@
       <c r="D154" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="21">
+      <c r="F154" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="21">
       <c r="A155" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B155" s="9" t="s">
@@ -4141,10 +4739,14 @@
       <c r="D155" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="21">
+      <c r="F155" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="21">
       <c r="A156" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B156" s="9" t="s">
@@ -4156,10 +4758,14 @@
       <c r="D156" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="21">
+      <c r="F156" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="21">
       <c r="A157" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B157" s="9" t="s">
@@ -4171,10 +4777,14 @@
       <c r="D157" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="21">
+      <c r="F157" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="21">
       <c r="A158" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B158" s="9" t="s">
@@ -4186,10 +4796,14 @@
       <c r="D158" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="21">
+      <c r="F158" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="21">
       <c r="A159" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B159" s="9" t="s">
@@ -4201,10 +4815,14 @@
       <c r="D159" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="21">
+      <c r="F159" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="21">
       <c r="A160" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B160" s="9" t="s">
@@ -4216,10 +4834,14 @@
       <c r="D160" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="21">
+      <c r="F160" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="21">
       <c r="A161" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B161" s="9" t="s">
@@ -4231,10 +4853,14 @@
       <c r="D161" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="21">
+      <c r="F161" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="21">
       <c r="A162" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B162" s="9" t="s">
@@ -4246,10 +4872,14 @@
       <c r="D162" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="21">
+      <c r="F162" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="21">
       <c r="A163" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B163" s="9" t="s">
@@ -4261,10 +4891,14 @@
       <c r="D163" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="21">
+      <c r="F163" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="21">
       <c r="A164" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B164" s="9" t="s">
@@ -4276,10 +4910,14 @@
       <c r="D164" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="21">
+      <c r="F164" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="21">
       <c r="A165" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B165" s="9" t="s">
@@ -4291,10 +4929,14 @@
       <c r="D165" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="21">
+      <c r="F165" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="21">
       <c r="A166" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B166" s="9" t="s">
@@ -4306,10 +4948,14 @@
       <c r="D166" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="21">
+      <c r="F166" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="21">
       <c r="A167" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B167" s="9" t="s">
@@ -4321,10 +4967,14 @@
       <c r="D167" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="21">
+      <c r="F167" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="21">
       <c r="A168" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B168" s="9" t="s">
@@ -4336,10 +4986,14 @@
       <c r="D168" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="21">
+      <c r="F168" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="21">
       <c r="A169" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B169" s="9" t="s">
@@ -4351,10 +5005,14 @@
       <c r="D169" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="21">
+      <c r="F169" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="21">
       <c r="A170" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B170" s="9" t="s">
@@ -4366,10 +5024,14 @@
       <c r="D170" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="21">
+      <c r="F170" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="21">
       <c r="A171" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B171" s="9" t="s">
@@ -4381,10 +5043,14 @@
       <c r="D171" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="21">
+      <c r="F171" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="21">
       <c r="A172" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B172" s="9" t="s">
@@ -4396,10 +5062,14 @@
       <c r="D172" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="21">
+      <c r="F172" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="21">
       <c r="A173" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B173" s="9" t="s">
@@ -4411,10 +5081,14 @@
       <c r="D173" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="21">
+      <c r="F173" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="21">
       <c r="A174" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B174" s="9" t="s">
@@ -4426,13 +5100,27 @@
       <c r="D174" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="21">
+      <c r="F174" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="F175" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="21">
       <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="1:4" ht="21">
+      <c r="F176" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="21">
       <c r="A177" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B177" s="6" t="s">
@@ -4444,10 +5132,14 @@
       <c r="D177" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="21">
+      <c r="F177" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="21">
       <c r="A178" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B178" s="6" t="s">
@@ -4459,10 +5151,14 @@
       <c r="D178" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="21">
+      <c r="F178" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="21">
       <c r="A179" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B179" s="6" t="s">
@@ -4474,10 +5170,14 @@
       <c r="D179" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="21">
+      <c r="F179" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="21">
       <c r="A180" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B180" s="6" t="s">
@@ -4489,10 +5189,14 @@
       <c r="D180" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="21">
+      <c r="F180" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="21">
       <c r="A181" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B181" s="6" t="s">
@@ -4504,10 +5208,14 @@
       <c r="D181" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="21">
+      <c r="F181" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="21">
       <c r="A182" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B182" s="6" t="s">
@@ -4519,10 +5227,14 @@
       <c r="D182" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="21">
+      <c r="F182" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="21">
       <c r="A183" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B183" s="6" t="s">
@@ -4534,10 +5246,14 @@
       <c r="D183" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="21">
+      <c r="F183" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="21">
       <c r="A184" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B184" s="6" t="s">
@@ -4549,10 +5265,14 @@
       <c r="D184" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="21">
+      <c r="F184" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="21">
       <c r="A185" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B185" s="6" t="s">
@@ -4564,10 +5284,14 @@
       <c r="D185" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="21">
+      <c r="F185" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="21">
       <c r="A186" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B186" s="6" t="s">
@@ -4579,10 +5303,14 @@
       <c r="D186" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="21">
+      <c r="F186" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="21">
       <c r="A187" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B187" s="6" t="s">
@@ -4594,10 +5322,14 @@
       <c r="D187" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="21">
+      <c r="F187" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="21">
       <c r="A188" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B188" s="6" t="s">
@@ -4609,10 +5341,14 @@
       <c r="D188" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="21">
+      <c r="F188" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="21">
       <c r="A189" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B189" s="6" t="s">
@@ -4624,10 +5360,14 @@
       <c r="D189" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="21">
+      <c r="F189" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="21">
       <c r="A190" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B190" s="6" t="s">
@@ -4639,10 +5379,14 @@
       <c r="D190" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="21">
+      <c r="F190" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="21">
       <c r="A191" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B191" s="6" t="s">
@@ -4654,10 +5398,14 @@
       <c r="D191" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="21">
+      <c r="F191" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="21">
       <c r="A192" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B192" s="6" t="s">
@@ -4669,10 +5417,14 @@
       <c r="D192" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="21">
+      <c r="F192" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="21">
       <c r="A193" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B193" s="6" t="s">
@@ -4684,10 +5436,14 @@
       <c r="D193" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="21">
+      <c r="F193" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="21">
       <c r="A194" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B194" s="6" t="s">
@@ -4699,10 +5455,14 @@
       <c r="D194" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="21">
+      <c r="F194" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="21">
       <c r="A195" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B195" s="6" t="s">
@@ -4714,10 +5474,14 @@
       <c r="D195" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="21">
+      <c r="F195" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="21">
       <c r="A196" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B196" s="6" t="s">
@@ -4729,10 +5493,14 @@
       <c r="D196" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="21">
+      <c r="F196" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="21">
       <c r="A197" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B197" s="6" t="s">
@@ -4744,10 +5512,14 @@
       <c r="D197" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="21">
+      <c r="F197" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="21">
       <c r="A198" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B198" s="6" t="s">
@@ -4759,10 +5531,14 @@
       <c r="D198" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="21">
+      <c r="F198" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="21">
       <c r="A199" s="2">
-        <f t="shared" ref="A199:A262" si="3">IF(D199="NO",0,1)</f>
+        <f t="shared" ref="A199:A262" si="6">IF(D199="NO",0,1)</f>
         <v>0</v>
       </c>
       <c r="B199" s="6" t="s">
@@ -4774,10 +5550,14 @@
       <c r="D199" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="21">
+      <c r="F199" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="21">
       <c r="A200" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B200" s="6" t="s">
@@ -4789,10 +5569,14 @@
       <c r="D200" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="21">
+      <c r="F200" s="2" t="b">
+        <f t="shared" ref="F200:F263" si="7">IF(A200=1,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="21">
       <c r="A201" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B201" s="6" t="s">
@@ -4804,10 +5588,14 @@
       <c r="D201" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="21">
+      <c r="F201" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="21">
       <c r="A202" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B202" s="6" t="s">
@@ -4819,10 +5607,14 @@
       <c r="D202" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="21">
+      <c r="F202" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="21">
       <c r="A203" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B203" s="6" t="s">
@@ -4834,10 +5626,14 @@
       <c r="D203" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="21">
+      <c r="F203" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="21">
       <c r="A204" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B204" s="6" t="s">
@@ -4849,10 +5645,14 @@
       <c r="D204" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="21">
+      <c r="F204" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="21">
       <c r="A205" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B205" s="6" t="s">
@@ -4864,10 +5664,14 @@
       <c r="D205" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="21">
+      <c r="F205" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="21">
       <c r="A206" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B206" s="6" t="s">
@@ -4879,10 +5683,14 @@
       <c r="D206" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" ht="21">
+      <c r="F206" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="21">
       <c r="A207" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B207" s="6" t="s">
@@ -4894,10 +5702,14 @@
       <c r="D207" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="21">
+      <c r="F207" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="21">
       <c r="A208" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B208" s="6" t="s">
@@ -4909,10 +5721,14 @@
       <c r="D208" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="21">
+      <c r="F208" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="21">
       <c r="A209" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B209" s="6" t="s">
@@ -4924,10 +5740,14 @@
       <c r="D209" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="21">
+      <c r="F209" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="21">
       <c r="A210" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B210" s="6" t="s">
@@ -4939,10 +5759,14 @@
       <c r="D210" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" ht="21">
+      <c r="F210" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="21">
       <c r="A211" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B211" s="6" t="s">
@@ -4954,18 +5778,30 @@
       <c r="D211" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" ht="21">
+      <c r="F211" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="21">
       <c r="B212" s="9"/>
       <c r="C212" s="1"/>
-    </row>
-    <row r="213" spans="1:4" ht="21">
+      <c r="F212" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="21">
       <c r="B213" s="9"/>
       <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="1:4" ht="21">
+      <c r="F213" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="21">
       <c r="A214" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B214" s="6" t="s">
@@ -4977,10 +5813,14 @@
       <c r="D214" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" ht="21">
+      <c r="F214" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="21">
       <c r="A215" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B215" s="6" t="s">
@@ -4992,10 +5832,14 @@
       <c r="D215" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" ht="21">
+      <c r="F215" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="21">
       <c r="A216" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B216" s="6" t="s">
@@ -5007,10 +5851,14 @@
       <c r="D216" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="21">
+      <c r="F216" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="21">
       <c r="A217" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B217" s="6" t="s">
@@ -5022,10 +5870,14 @@
       <c r="D217" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="21">
+      <c r="F217" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="21">
       <c r="A218" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B218" s="6" t="s">
@@ -5037,10 +5889,14 @@
       <c r="D218" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" ht="21">
+      <c r="F218" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="21">
       <c r="A219" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B219" s="6" t="s">
@@ -5052,10 +5908,14 @@
       <c r="D219" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" ht="21">
+      <c r="F219" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="21">
       <c r="A220" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B220" s="6" t="s">
@@ -5067,10 +5927,14 @@
       <c r="D220" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" ht="21">
+      <c r="F220" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="21">
       <c r="A221" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B221" s="6" t="s">
@@ -5082,10 +5946,14 @@
       <c r="D221" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="21">
+      <c r="F221" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="21">
       <c r="A222" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B222" s="6" t="s">
@@ -5097,10 +5965,14 @@
       <c r="D222" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" ht="21">
+      <c r="F222" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="21">
       <c r="A223" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B223" s="6" t="s">
@@ -5112,10 +5984,14 @@
       <c r="D223" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" ht="21">
+      <c r="F223" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="21">
       <c r="A224" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B224" s="6" t="s">
@@ -5127,10 +6003,14 @@
       <c r="D224" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" ht="21">
+      <c r="F224" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="21">
       <c r="A225" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B225" s="6" t="s">
@@ -5142,10 +6022,14 @@
       <c r="D225" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" ht="21">
+      <c r="F225" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="21">
       <c r="A226" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B226" s="6" t="s">
@@ -5157,10 +6041,14 @@
       <c r="D226" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" ht="21">
+      <c r="F226" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="21">
       <c r="A227" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B227" s="6" t="s">
@@ -5172,10 +6060,14 @@
       <c r="D227" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="21">
+      <c r="F227" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="21">
       <c r="A228" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B228" s="6" t="s">
@@ -5187,10 +6079,14 @@
       <c r="D228" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="21">
+      <c r="F228" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="21">
       <c r="A229" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B229" s="6" t="s">
@@ -5202,10 +6098,14 @@
       <c r="D229" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="21">
+      <c r="F229" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="21">
       <c r="A230" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B230" s="6" t="s">
@@ -5217,10 +6117,14 @@
       <c r="D230" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" ht="21">
+      <c r="F230" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="21">
       <c r="A231" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B231" s="6" t="s">
@@ -5232,10 +6136,14 @@
       <c r="D231" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="21">
+      <c r="F231" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="21">
       <c r="A232" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B232" s="6" t="s">
@@ -5247,10 +6155,14 @@
       <c r="D232" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="21">
+      <c r="F232" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="21">
       <c r="A233" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B233" s="6" t="s">
@@ -5262,10 +6174,14 @@
       <c r="D233" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="21">
+      <c r="F233" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="21">
       <c r="A234" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B234" s="6" t="s">
@@ -5277,10 +6193,14 @@
       <c r="D234" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" ht="21">
+      <c r="F234" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="21">
       <c r="A235" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B235" s="6" t="s">
@@ -5292,16 +6212,28 @@
       <c r="D235" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="21">
+      <c r="F235" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="21">
       <c r="C236" s="1"/>
-    </row>
-    <row r="237" spans="1:4" ht="21">
+      <c r="F236" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="21">
       <c r="C237" s="1"/>
-    </row>
-    <row r="238" spans="1:4" ht="21">
+      <c r="F237" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="21">
       <c r="A238" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B238" s="6" t="s">
@@ -5313,10 +6245,14 @@
       <c r="D238" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="21">
+      <c r="F238" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="21">
       <c r="A239" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B239" s="6" t="s">
@@ -5328,10 +6264,14 @@
       <c r="D239" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="21">
+      <c r="F239" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="21">
       <c r="A240" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B240" s="6" t="s">
@@ -5343,10 +6283,14 @@
       <c r="D240" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" ht="21">
+      <c r="F240" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="21">
       <c r="A241" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B241" s="6" t="s">
@@ -5358,10 +6302,14 @@
       <c r="D241" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" ht="21">
+      <c r="F241" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="21">
       <c r="A242" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B242" s="6" t="s">
@@ -5373,10 +6321,14 @@
       <c r="D242" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" ht="21">
+      <c r="F242" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="21">
       <c r="A243" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B243" s="6" t="s">
@@ -5388,10 +6340,14 @@
       <c r="D243" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" ht="21">
+      <c r="F243" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="21">
       <c r="A244" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B244" s="6" t="s">
@@ -5403,10 +6359,14 @@
       <c r="D244" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" ht="21">
+      <c r="F244" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="21">
       <c r="A245" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B245" s="6" t="s">
@@ -5418,10 +6378,14 @@
       <c r="D245" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" ht="21">
+      <c r="F245" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="21">
       <c r="A246" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B246" s="6" t="s">
@@ -5433,10 +6397,14 @@
       <c r="D246" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" ht="21">
+      <c r="F246" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="21">
       <c r="A247" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B247" s="6" t="s">
@@ -5448,10 +6416,14 @@
       <c r="D247" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" ht="21">
+      <c r="F247" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="21">
       <c r="A248" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B248" s="6" t="s">
@@ -5463,10 +6435,14 @@
       <c r="D248" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" ht="21">
+      <c r="F248" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="21">
       <c r="A249" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B249" s="6" t="s">
@@ -5478,10 +6454,14 @@
       <c r="D249" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" ht="21">
+      <c r="F249" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="21">
       <c r="A250" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B250" s="6" t="s">
@@ -5493,10 +6473,14 @@
       <c r="D250" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" ht="21">
+      <c r="F250" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="21">
       <c r="A251" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B251" s="6" t="s">
@@ -5508,10 +6492,14 @@
       <c r="D251" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" ht="21">
+      <c r="F251" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="21">
       <c r="A252" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B252" s="6" t="s">
@@ -5523,10 +6511,14 @@
       <c r="D252" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" ht="21">
+      <c r="F252" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="21">
       <c r="A253" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B253" s="6" t="s">
@@ -5538,10 +6530,14 @@
       <c r="D253" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" ht="21">
+      <c r="F253" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="21">
       <c r="A254" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B254" s="6" t="s">
@@ -5553,10 +6549,14 @@
       <c r="D254" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" ht="21">
+      <c r="F254" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="21">
       <c r="A255" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B255" s="6" t="s">
@@ -5568,10 +6568,14 @@
       <c r="D255" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" ht="21">
+      <c r="F255" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="21">
       <c r="A256" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B256" s="6" t="s">
@@ -5583,10 +6587,14 @@
       <c r="D256" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" ht="21">
+      <c r="F256" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="21">
       <c r="A257" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B257" s="6" t="s">
@@ -5598,10 +6606,14 @@
       <c r="D257" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" ht="21">
+      <c r="F257" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="21">
       <c r="A258" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B258" s="6" t="s">
@@ -5613,10 +6625,14 @@
       <c r="D258" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" ht="21">
+      <c r="F258" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="21">
       <c r="A259" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B259" s="6" t="s">
@@ -5628,10 +6644,14 @@
       <c r="D259" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" ht="21">
+      <c r="F259" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="21">
       <c r="A260" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B260" s="6" t="s">
@@ -5643,10 +6663,14 @@
       <c r="D260" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" ht="21">
+      <c r="F260" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="21">
       <c r="A261" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B261" s="6" t="s">
@@ -5658,10 +6682,14 @@
       <c r="D261" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" ht="21">
+      <c r="F261" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="21">
       <c r="A262" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B262" s="6" t="s">
@@ -5673,10 +6701,14 @@
       <c r="D262" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" ht="21">
+      <c r="F262" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="21">
       <c r="A263" s="2">
-        <f t="shared" ref="A263:A326" si="4">IF(D263="NO",0,1)</f>
+        <f t="shared" ref="A263:A326" si="8">IF(D263="NO",0,1)</f>
         <v>0</v>
       </c>
       <c r="B263" s="6" t="s">
@@ -5688,10 +6720,14 @@
       <c r="D263" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" ht="21">
+      <c r="F263" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="21">
       <c r="A264" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B264" s="6" t="s">
@@ -5703,10 +6739,14 @@
       <c r="D264" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" ht="21">
+      <c r="F264" s="2" t="b">
+        <f t="shared" ref="F264:F327" si="9">IF(A264=1,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="21">
       <c r="A265" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B265" s="6" t="s">
@@ -5718,10 +6758,14 @@
       <c r="D265" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" ht="21">
+      <c r="F265" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="21">
       <c r="A266" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B266" s="6" t="s">
@@ -5733,10 +6777,14 @@
       <c r="D266" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" ht="21">
+      <c r="F266" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="21">
       <c r="A267" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B267" s="6" t="s">
@@ -5748,10 +6796,14 @@
       <c r="D267" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" ht="21">
+      <c r="F267" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="21">
       <c r="A268" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B268" s="6" t="s">
@@ -5763,10 +6815,14 @@
       <c r="D268" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" ht="21">
+      <c r="F268" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="21">
       <c r="A269" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B269" s="6" t="s">
@@ -5778,10 +6834,14 @@
       <c r="D269" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" ht="21">
+      <c r="F269" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="21">
       <c r="A270" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B270" s="6" t="s">
@@ -5793,10 +6853,14 @@
       <c r="D270" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" ht="21">
+      <c r="F270" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="21">
       <c r="A271" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B271" s="6" t="s">
@@ -5808,10 +6872,14 @@
       <c r="D271" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" ht="21">
+      <c r="F271" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="21">
       <c r="A272" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B272" s="6" t="s">
@@ -5823,16 +6891,28 @@
       <c r="D272" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" ht="21">
+      <c r="F272" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="21">
       <c r="C273" s="1"/>
-    </row>
-    <row r="274" spans="1:4" ht="21">
+      <c r="F273" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="21">
       <c r="C274" s="1"/>
-    </row>
-    <row r="275" spans="1:4" ht="21">
+      <c r="F274" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="21">
       <c r="A275" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B275" s="6" t="s">
@@ -5844,10 +6924,14 @@
       <c r="D275" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" ht="21">
+      <c r="F275" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="21">
       <c r="A276" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B276" s="6" t="s">
@@ -5859,10 +6943,14 @@
       <c r="D276" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" ht="21">
+      <c r="F276" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="21">
       <c r="A277" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B277" s="6" t="s">
@@ -5874,10 +6962,14 @@
       <c r="D277" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" ht="21">
+      <c r="F277" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="21">
       <c r="A278" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B278" s="6" t="s">
@@ -5889,10 +6981,14 @@
       <c r="D278" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" ht="21">
+      <c r="F278" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="21">
       <c r="A279" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B279" s="6" t="s">
@@ -5904,10 +7000,14 @@
       <c r="D279" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" ht="21">
+      <c r="F279" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="21">
       <c r="A280" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B280" s="6" t="s">
@@ -5919,10 +7019,14 @@
       <c r="D280" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="21">
+      <c r="F280" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="21">
       <c r="A281" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B281" s="6" t="s">
@@ -5934,10 +7038,14 @@
       <c r="D281" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" ht="21">
+      <c r="F281" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="21">
       <c r="A282" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B282" s="6" t="s">
@@ -5949,10 +7057,14 @@
       <c r="D282" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" ht="21">
+      <c r="F282" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="21">
       <c r="A283" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B283" s="6" t="s">
@@ -5964,10 +7076,14 @@
       <c r="D283" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" ht="21">
+      <c r="F283" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="21">
       <c r="A284" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B284" s="6" t="s">
@@ -5979,10 +7095,14 @@
       <c r="D284" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" ht="21">
+      <c r="F284" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="21">
       <c r="A285" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B285" s="6" t="s">
@@ -5994,10 +7114,14 @@
       <c r="D285" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" ht="21">
+      <c r="F285" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="21">
       <c r="A286" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B286" s="6" t="s">
@@ -6009,10 +7133,14 @@
       <c r="D286" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" ht="21">
+      <c r="F286" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="21">
       <c r="A287" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B287" s="6" t="s">
@@ -6024,10 +7152,14 @@
       <c r="D287" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" ht="21">
+      <c r="F287" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="21">
       <c r="A288" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B288" s="6" t="s">
@@ -6039,10 +7171,14 @@
       <c r="D288" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" ht="21">
+      <c r="F288" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="21">
       <c r="A289" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B289" s="6" t="s">
@@ -6054,10 +7190,14 @@
       <c r="D289" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" ht="21">
+      <c r="F289" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="21">
       <c r="A290" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B290" s="6" t="s">
@@ -6069,10 +7209,14 @@
       <c r="D290" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" ht="21">
+      <c r="F290" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="21">
       <c r="A291" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B291" s="6" t="s">
@@ -6084,10 +7228,14 @@
       <c r="D291" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" ht="21">
+      <c r="F291" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="21">
       <c r="A292" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B292" s="6" t="s">
@@ -6099,10 +7247,14 @@
       <c r="D292" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" ht="21">
+      <c r="F292" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="21">
       <c r="A293" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B293" s="6" t="s">
@@ -6114,16 +7266,28 @@
       <c r="D293" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" ht="21">
+      <c r="F293" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="21">
       <c r="C294" s="1"/>
-    </row>
-    <row r="295" spans="1:4" ht="21">
+      <c r="F294" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="21">
       <c r="C295" s="1"/>
-    </row>
-    <row r="296" spans="1:4" ht="21">
+      <c r="F295" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="21">
       <c r="A296" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B296" s="6" t="s">
@@ -6135,10 +7299,14 @@
       <c r="D296" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" ht="21">
+      <c r="F296" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="21">
       <c r="A297" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B297" s="6" t="s">
@@ -6150,10 +7318,14 @@
       <c r="D297" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" ht="21">
+      <c r="F297" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="21">
       <c r="A298" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B298" s="6" t="s">
@@ -6165,10 +7337,14 @@
       <c r="D298" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" ht="21">
+      <c r="F298" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="21">
       <c r="A299" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B299" s="6" t="s">
@@ -6180,10 +7356,14 @@
       <c r="D299" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" ht="21">
+      <c r="F299" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="21">
       <c r="A300" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B300" s="6" t="s">
@@ -6195,10 +7375,14 @@
       <c r="D300" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" ht="21">
+      <c r="F300" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="21">
       <c r="A301" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B301" s="6" t="s">
@@ -6210,10 +7394,14 @@
       <c r="D301" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" ht="21">
+      <c r="F301" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="21">
       <c r="A302" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B302" s="6" t="s">
@@ -6225,10 +7413,14 @@
       <c r="D302" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" ht="21">
+      <c r="F302" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="21">
       <c r="A303" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B303" s="6" t="s">
@@ -6240,10 +7432,14 @@
       <c r="D303" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" ht="21">
+      <c r="F303" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="21">
       <c r="A304" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B304" s="6" t="s">
@@ -6255,10 +7451,14 @@
       <c r="D304" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" ht="21">
+      <c r="F304" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="21">
       <c r="A305" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B305" s="6" t="s">
@@ -6270,10 +7470,14 @@
       <c r="D305" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" ht="21">
+      <c r="F305" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="21">
       <c r="A306" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B306" s="6" t="s">
@@ -6285,10 +7489,14 @@
       <c r="D306" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" ht="21">
+      <c r="F306" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="21">
       <c r="A307" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B307" s="6" t="s">
@@ -6300,10 +7508,14 @@
       <c r="D307" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" ht="21">
+      <c r="F307" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="21">
       <c r="A308" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B308" s="6" t="s">
@@ -6315,10 +7527,14 @@
       <c r="D308" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" ht="21">
+      <c r="F308" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="21">
       <c r="A309" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B309" s="6" t="s">
@@ -6330,10 +7546,14 @@
       <c r="D309" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" ht="21">
+      <c r="F309" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="21">
       <c r="A310" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B310" s="6" t="s">
@@ -6345,10 +7565,14 @@
       <c r="D310" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" ht="21">
+      <c r="F310" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="21">
       <c r="A311" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B311" s="6" t="s">
@@ -6360,10 +7584,14 @@
       <c r="D311" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" ht="21">
+      <c r="F311" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="21">
       <c r="A312" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B312" s="6" t="s">
@@ -6375,10 +7603,14 @@
       <c r="D312" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" ht="21">
+      <c r="F312" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="21">
       <c r="A313" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B313" s="6" t="s">
@@ -6390,10 +7622,14 @@
       <c r="D313" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" ht="21">
+      <c r="F313" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="21">
       <c r="A314" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B314" s="6" t="s">
@@ -6405,10 +7641,14 @@
       <c r="D314" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" ht="21">
+      <c r="F314" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="21">
       <c r="A315" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B315" s="6" t="s">
@@ -6420,10 +7660,14 @@
       <c r="D315" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" ht="21">
+      <c r="F315" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="21">
       <c r="A316" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B316" s="6" t="s">
@@ -6435,10 +7679,14 @@
       <c r="D316" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" ht="21">
+      <c r="F316" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="21">
       <c r="A317" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B317" s="6" t="s">
@@ -6450,10 +7698,14 @@
       <c r="D317" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" ht="21">
+      <c r="F317" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="21">
       <c r="A318" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B318" s="6" t="s">
@@ -6465,10 +7717,14 @@
       <c r="D318" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" ht="21">
+      <c r="F318" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="21">
       <c r="A319" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B319" s="6" t="s">
@@ -6480,10 +7736,14 @@
       <c r="D319" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" ht="21">
+      <c r="F319" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="21">
       <c r="A320" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B320" s="6" t="s">
@@ -6495,10 +7755,14 @@
       <c r="D320" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" ht="21">
+      <c r="F320" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="21">
       <c r="A321" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B321" s="6" t="s">
@@ -6510,10 +7774,14 @@
       <c r="D321" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" ht="21">
+      <c r="F321" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="21">
       <c r="A322" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B322" s="6" t="s">
@@ -6525,10 +7793,14 @@
       <c r="D322" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" ht="21">
+      <c r="F322" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="21">
       <c r="A323" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B323" s="6" t="s">
@@ -6540,10 +7812,14 @@
       <c r="D323" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" ht="21">
+      <c r="F323" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="21">
       <c r="A324" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B324" s="6" t="s">
@@ -6555,10 +7831,14 @@
       <c r="D324" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" ht="21">
+      <c r="F324" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="21">
       <c r="A325" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B325" s="6" t="s">
@@ -6570,10 +7850,14 @@
       <c r="D325" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" ht="21">
+      <c r="F325" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="21">
       <c r="A326" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B326" s="6" t="s">
@@ -6585,10 +7869,14 @@
       <c r="D326" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" ht="21">
+      <c r="F326" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="21">
       <c r="A327" s="2">
-        <f t="shared" ref="A327:A390" si="5">IF(D327="NO",0,1)</f>
+        <f t="shared" ref="A327:A390" si="10">IF(D327="NO",0,1)</f>
         <v>0</v>
       </c>
       <c r="B327" s="6" t="s">
@@ -6600,10 +7888,14 @@
       <c r="D327" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" ht="21">
+      <c r="F327" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="21">
       <c r="A328" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B328" s="6" t="s">
@@ -6615,10 +7907,14 @@
       <c r="D328" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" ht="21">
+      <c r="F328" s="2" t="b">
+        <f t="shared" ref="F328:F391" si="11">IF(A328=1,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="21">
       <c r="A329" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B329" s="6" t="s">
@@ -6630,10 +7926,14 @@
       <c r="D329" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" ht="21">
+      <c r="F329" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="21">
       <c r="A330" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B330" s="6" t="s">
@@ -6645,10 +7945,14 @@
       <c r="D330" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" ht="21">
+      <c r="F330" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="21">
       <c r="A331" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B331" s="6" t="s">
@@ -6660,10 +7964,14 @@
       <c r="D331" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" ht="21">
+      <c r="F331" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="21">
       <c r="A332" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B332" s="6" t="s">
@@ -6675,10 +7983,14 @@
       <c r="D332" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" ht="21">
+      <c r="F332" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="21">
       <c r="A333" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B333" s="6" t="s">
@@ -6690,16 +8002,28 @@
       <c r="D333" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" ht="21">
+      <c r="F333" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="21">
       <c r="C334" s="1"/>
-    </row>
-    <row r="335" spans="1:4" ht="21">
+      <c r="F334" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="21">
       <c r="C335" s="1"/>
-    </row>
-    <row r="336" spans="1:4" ht="21">
+      <c r="F335" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="21">
       <c r="A336" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B336" s="9" t="s">
@@ -6711,10 +8035,14 @@
       <c r="D336" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" ht="21">
+      <c r="F336" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="21">
       <c r="A337" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B337" s="9" t="s">
@@ -6726,10 +8054,14 @@
       <c r="D337" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" ht="21">
+      <c r="F337" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="21">
       <c r="A338" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B338" s="9" t="s">
@@ -6741,10 +8073,14 @@
       <c r="D338" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" ht="21">
+      <c r="F338" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="21">
       <c r="A339" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B339" s="9" t="s">
@@ -6756,10 +8092,14 @@
       <c r="D339" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" ht="21">
+      <c r="F339" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="21">
       <c r="A340" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B340" s="9" t="s">
@@ -6771,10 +8111,14 @@
       <c r="D340" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" ht="21">
+      <c r="F340" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="21">
       <c r="A341" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B341" s="9" t="s">
@@ -6786,10 +8130,14 @@
       <c r="D341" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" ht="21">
+      <c r="F341" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="21">
       <c r="A342" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B342" s="9" t="s">
@@ -6801,10 +8149,14 @@
       <c r="D342" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" ht="21">
+      <c r="F342" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="21">
       <c r="A343" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B343" s="9" t="s">
@@ -6816,10 +8168,14 @@
       <c r="D343" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" ht="21">
+      <c r="F343" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="21">
       <c r="A344" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B344" s="9" t="s">
@@ -6831,10 +8187,14 @@
       <c r="D344" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" ht="21">
+      <c r="F344" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="21">
       <c r="A345" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B345" s="9" t="s">
@@ -6846,10 +8206,14 @@
       <c r="D345" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" ht="21">
+      <c r="F345" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="21">
       <c r="A346" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B346" s="9" t="s">
@@ -6861,10 +8225,14 @@
       <c r="D346" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" ht="21">
+      <c r="F346" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="21">
       <c r="A347" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B347" s="9" t="s">
@@ -6876,10 +8244,14 @@
       <c r="D347" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" ht="21">
+      <c r="F347" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="21">
       <c r="A348" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B348" s="9" t="s">
@@ -6891,10 +8263,14 @@
       <c r="D348" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" ht="21">
+      <c r="F348" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="21">
       <c r="A349" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B349" s="9" t="s">
@@ -6906,10 +8282,14 @@
       <c r="D349" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" ht="21">
+      <c r="F349" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="21">
       <c r="A350" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B350" s="9" t="s">
@@ -6921,10 +8301,14 @@
       <c r="D350" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" ht="21">
+      <c r="F350" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="21">
       <c r="A351" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B351" s="9" t="s">
@@ -6936,10 +8320,14 @@
       <c r="D351" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" ht="21">
+      <c r="F351" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="21">
       <c r="A352" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B352" s="9" t="s">
@@ -6951,10 +8339,14 @@
       <c r="D352" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" ht="21">
+      <c r="F352" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="21">
       <c r="A353" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B353" s="9" t="s">
@@ -6966,16 +8358,28 @@
       <c r="D353" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" ht="21">
+      <c r="F353" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="21">
       <c r="C354" s="1"/>
-    </row>
-    <row r="355" spans="1:4" ht="21">
+      <c r="F354" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="21">
       <c r="C355" s="1"/>
-    </row>
-    <row r="356" spans="1:4" ht="21">
+      <c r="F355" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="21">
       <c r="A356" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B356" s="9" t="s">
@@ -6987,10 +8391,14 @@
       <c r="D356" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" ht="21">
+      <c r="F356" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="21">
       <c r="A357" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B357" s="9" t="s">
@@ -7002,10 +8410,14 @@
       <c r="D357" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" ht="21">
+      <c r="F357" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="21">
       <c r="A358" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B358" s="9" t="s">
@@ -7017,10 +8429,14 @@
       <c r="D358" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" ht="21">
+      <c r="F358" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="21">
       <c r="A359" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B359" s="9" t="s">
@@ -7032,10 +8448,14 @@
       <c r="D359" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" ht="21">
+      <c r="F359" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="21">
       <c r="A360" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B360" s="9" t="s">
@@ -7047,10 +8467,14 @@
       <c r="D360" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" ht="21">
+      <c r="F360" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="21">
       <c r="A361" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B361" s="9" t="s">
@@ -7062,10 +8486,14 @@
       <c r="D361" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" ht="21">
+      <c r="F361" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="21">
       <c r="A362" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B362" s="9" t="s">
@@ -7077,10 +8505,14 @@
       <c r="D362" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" ht="21">
+      <c r="F362" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="21">
       <c r="A363" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B363" s="9" t="s">
@@ -7092,10 +8524,14 @@
       <c r="D363" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" ht="21">
+      <c r="F363" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="21">
       <c r="A364" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B364" s="9" t="s">
@@ -7107,10 +8543,14 @@
       <c r="D364" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" ht="21">
+      <c r="F364" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="21">
       <c r="A365" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B365" s="9" t="s">
@@ -7122,10 +8562,14 @@
       <c r="D365" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" ht="21">
+      <c r="F365" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="21">
       <c r="A366" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B366" s="9" t="s">
@@ -7137,10 +8581,14 @@
       <c r="D366" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" ht="21">
+      <c r="F366" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="21">
       <c r="A367" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B367" s="9" t="s">
@@ -7152,10 +8600,14 @@
       <c r="D367" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" ht="21">
+      <c r="F367" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="21">
       <c r="A368" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B368" s="9" t="s">
@@ -7167,10 +8619,14 @@
       <c r="D368" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" ht="21">
+      <c r="F368" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="21">
       <c r="A369" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B369" s="9" t="s">
@@ -7182,10 +8638,14 @@
       <c r="D369" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" ht="21">
+      <c r="F369" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="21">
       <c r="A370" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B370" s="9" t="s">
@@ -7197,10 +8657,14 @@
       <c r="D370" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" ht="21">
+      <c r="F370" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="21">
       <c r="A371" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B371" s="9" t="s">
@@ -7212,10 +8676,14 @@
       <c r="D371" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" ht="21">
+      <c r="F371" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="21">
       <c r="A372" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B372" s="9" t="s">
@@ -7227,10 +8695,14 @@
       <c r="D372" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" ht="21">
+      <c r="F372" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="21">
       <c r="A373" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B373" s="9" t="s">
@@ -7242,10 +8714,14 @@
       <c r="D373" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" ht="21">
+      <c r="F373" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="21">
       <c r="A374" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B374" s="9" t="s">
@@ -7257,10 +8733,14 @@
       <c r="D374" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" ht="21">
+      <c r="F374" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="21">
       <c r="A375" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B375" s="9" t="s">
@@ -7272,10 +8752,14 @@
       <c r="D375" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" ht="21">
+      <c r="F375" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="21">
       <c r="A376" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B376" s="9" t="s">
@@ -7287,10 +8771,14 @@
       <c r="D376" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" ht="21">
+      <c r="F376" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="21">
       <c r="A377" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B377" s="9" t="s">
@@ -7302,10 +8790,14 @@
       <c r="D377" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" ht="21">
+      <c r="F377" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="21">
       <c r="A378" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B378" s="9" t="s">
@@ -7317,10 +8809,14 @@
       <c r="D378" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" ht="21">
+      <c r="F378" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="21">
       <c r="A379" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B379" s="9" t="s">
@@ -7332,10 +8828,14 @@
       <c r="D379" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" ht="21">
+      <c r="F379" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="21">
       <c r="A380" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B380" s="9" t="s">
@@ -7347,10 +8847,14 @@
       <c r="D380" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" ht="21">
+      <c r="F380" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="21">
       <c r="A381" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B381" s="9" t="s">
@@ -7362,10 +8866,14 @@
       <c r="D381" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" ht="21">
+      <c r="F381" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="21">
       <c r="A382" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B382" s="9" t="s">
@@ -7377,10 +8885,14 @@
       <c r="D382" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" ht="21">
+      <c r="F382" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="21">
       <c r="A383" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B383" s="9" t="s">
@@ -7392,10 +8904,14 @@
       <c r="D383" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" ht="21">
+      <c r="F383" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="21">
       <c r="A384" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B384" s="9" t="s">
@@ -7407,10 +8923,14 @@
       <c r="D384" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" ht="21">
+      <c r="F384" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="21">
       <c r="A385" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B385" s="9" t="s">
@@ -7422,10 +8942,14 @@
       <c r="D385" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" ht="21">
+      <c r="F385" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="21">
       <c r="A386" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B386" s="9" t="s">
@@ -7437,10 +8961,14 @@
       <c r="D386" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" ht="21">
+      <c r="F386" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="21">
       <c r="A387" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B387" s="9" t="s">
@@ -7452,10 +8980,14 @@
       <c r="D387" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" ht="21">
+      <c r="F387" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="21">
       <c r="A388" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B388" s="9" t="s">
@@ -7467,10 +8999,14 @@
       <c r="D388" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" ht="21">
+      <c r="F388" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="21">
       <c r="A389" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B389" s="9" t="s">
@@ -7482,10 +9018,14 @@
       <c r="D389" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" ht="21">
+      <c r="F389" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="21">
       <c r="A390" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B390" s="9" t="s">
@@ -7497,10 +9037,14 @@
       <c r="D390" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" ht="21">
+      <c r="F390" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="21">
       <c r="A391" s="2">
-        <f t="shared" ref="A391:A454" si="6">IF(D391="NO",0,1)</f>
+        <f t="shared" ref="A391:A454" si="12">IF(D391="NO",0,1)</f>
         <v>0</v>
       </c>
       <c r="B391" s="9" t="s">
@@ -7512,10 +9056,14 @@
       <c r="D391" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" ht="21">
+      <c r="F391" s="2" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="21">
       <c r="A392" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B392" s="9" t="s">
@@ -7527,10 +9075,14 @@
       <c r="D392" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" ht="21">
+      <c r="F392" s="2" t="b">
+        <f t="shared" ref="F392:F455" si="13">IF(A392=1,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="21">
       <c r="A393" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B393" s="9" t="s">
@@ -7542,10 +9094,14 @@
       <c r="D393" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" ht="21">
+      <c r="F393" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="21">
       <c r="A394" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B394" s="9" t="s">
@@ -7557,10 +9113,14 @@
       <c r="D394" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" ht="21">
+      <c r="F394" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="21">
       <c r="A395" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B395" s="9" t="s">
@@ -7572,10 +9132,14 @@
       <c r="D395" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" ht="21">
+      <c r="F395" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="21">
       <c r="A396" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B396" s="9" t="s">
@@ -7587,10 +9151,14 @@
       <c r="D396" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" ht="21">
+      <c r="F396" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="21">
       <c r="A397" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B397" s="9" t="s">
@@ -7602,10 +9170,14 @@
       <c r="D397" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" ht="21">
+      <c r="F397" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="21">
       <c r="A398" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B398" s="9" t="s">
@@ -7617,10 +9189,14 @@
       <c r="D398" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" ht="21">
+      <c r="F398" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="21">
       <c r="A399" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B399" s="9" t="s">
@@ -7632,16 +9208,28 @@
       <c r="D399" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" ht="21">
+      <c r="F399" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="21">
       <c r="C400" s="1"/>
-    </row>
-    <row r="401" spans="1:4" ht="21">
+      <c r="F400" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" ht="21">
       <c r="C401" s="1"/>
-    </row>
-    <row r="402" spans="1:4" ht="21">
+      <c r="F401" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="21">
       <c r="A402" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B402" s="9" t="s">
@@ -7653,10 +9241,14 @@
       <c r="D402" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" ht="21">
+      <c r="F402" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="21">
       <c r="A403" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B403" s="9" t="s">
@@ -7668,10 +9260,14 @@
       <c r="D403" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" ht="21">
+      <c r="F403" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" ht="21">
       <c r="A404" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B404" s="9" t="s">
@@ -7683,10 +9279,14 @@
       <c r="D404" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" ht="21">
+      <c r="F404" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="21">
       <c r="A405" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B405" s="9" t="s">
@@ -7698,10 +9298,14 @@
       <c r="D405" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" ht="21">
+      <c r="F405" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="21">
       <c r="A406" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B406" s="9" t="s">
@@ -7713,10 +9317,14 @@
       <c r="D406" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" ht="21">
+      <c r="F406" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="21">
       <c r="A407" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B407" s="9" t="s">
@@ -7728,16 +9336,28 @@
       <c r="D407" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" ht="21">
+      <c r="F407" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" ht="21">
       <c r="C408" s="1"/>
-    </row>
-    <row r="409" spans="1:4" ht="21">
+      <c r="F408" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="21">
       <c r="C409" s="1"/>
-    </row>
-    <row r="410" spans="1:4" ht="21">
+      <c r="F409" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="21">
       <c r="A410" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B410" s="6" t="s">
@@ -7749,10 +9369,14 @@
       <c r="D410" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" ht="21">
+      <c r="F410" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="21">
       <c r="A411" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B411" s="6" t="s">
@@ -7764,10 +9388,14 @@
       <c r="D411" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" ht="21">
+      <c r="F411" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="21">
       <c r="A412" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B412" s="6" t="s">
@@ -7779,10 +9407,14 @@
       <c r="D412" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" ht="21">
+      <c r="F412" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="21">
       <c r="A413" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B413" s="6" t="s">
@@ -7794,10 +9426,14 @@
       <c r="D413" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" ht="21">
+      <c r="F413" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="21">
       <c r="A414" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B414" s="6" t="s">
@@ -7809,10 +9445,14 @@
       <c r="D414" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" ht="21">
+      <c r="F414" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="21">
       <c r="A415" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B415" s="6" t="s">
@@ -7824,10 +9464,14 @@
       <c r="D415" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" ht="21">
+      <c r="F415" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="21">
       <c r="A416" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B416" s="6" t="s">
@@ -7839,10 +9483,14 @@
       <c r="D416" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" ht="21">
+      <c r="F416" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="21">
       <c r="A417" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B417" s="6" t="s">
@@ -7854,10 +9502,14 @@
       <c r="D417" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" ht="21">
+      <c r="F417" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="21">
       <c r="A418" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B418" s="6" t="s">
@@ -7869,10 +9521,14 @@
       <c r="D418" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" ht="21">
+      <c r="F418" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="21">
       <c r="A419" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B419" s="6" t="s">
@@ -7884,10 +9540,14 @@
       <c r="D419" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" ht="21">
+      <c r="F419" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="21">
       <c r="A420" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B420" s="6" t="s">
@@ -7899,10 +9559,14 @@
       <c r="D420" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" ht="21">
+      <c r="F420" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" ht="21">
       <c r="A421" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B421" s="6" t="s">
@@ -7914,10 +9578,14 @@
       <c r="D421" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" ht="21">
+      <c r="F421" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" ht="21">
       <c r="A422" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B422" s="6" t="s">
@@ -7929,10 +9597,14 @@
       <c r="D422" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" ht="21">
+      <c r="F422" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="21">
       <c r="A423" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B423" s="6" t="s">
@@ -7944,10 +9616,14 @@
       <c r="D423" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" ht="21">
+      <c r="F423" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="21">
       <c r="A424" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B424" s="6" t="s">
@@ -7959,10 +9635,14 @@
       <c r="D424" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" ht="21">
+      <c r="F424" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="21">
       <c r="A425" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B425" s="6" t="s">
@@ -7974,10 +9654,14 @@
       <c r="D425" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" ht="21">
+      <c r="F425" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="21">
       <c r="A426" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B426" s="6" t="s">
@@ -7989,10 +9673,14 @@
       <c r="D426" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" ht="21">
+      <c r="F426" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="21">
       <c r="A427" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B427" s="6" t="s">
@@ -8004,10 +9692,14 @@
       <c r="D427" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" ht="21">
+      <c r="F427" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="21">
       <c r="A428" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B428" s="6" t="s">
@@ -8019,10 +9711,14 @@
       <c r="D428" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" ht="21">
+      <c r="F428" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="21">
       <c r="A429" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B429" s="6" t="s">
@@ -8034,10 +9730,14 @@
       <c r="D429" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" ht="21">
+      <c r="F429" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="21">
       <c r="A430" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B430" s="6" t="s">
@@ -8049,10 +9749,14 @@
       <c r="D430" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" ht="21">
+      <c r="F430" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" ht="21">
       <c r="A431" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B431" s="6" t="s">
@@ -8064,10 +9768,14 @@
       <c r="D431" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" ht="21">
+      <c r="F431" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" ht="21">
       <c r="A432" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B432" s="6" t="s">
@@ -8079,10 +9787,14 @@
       <c r="D432" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" ht="21">
+      <c r="F432" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="21">
       <c r="A433" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B433" s="6" t="s">
@@ -8094,10 +9806,14 @@
       <c r="D433" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" ht="21">
+      <c r="F433" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="21">
       <c r="A434" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B434" s="6" t="s">
@@ -8109,10 +9825,14 @@
       <c r="D434" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" ht="21">
+      <c r="F434" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="21">
       <c r="A435" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B435" s="6" t="s">
@@ -8124,10 +9844,14 @@
       <c r="D435" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" ht="21">
+      <c r="F435" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="21">
       <c r="A436" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B436" s="6" t="s">
@@ -8139,10 +9863,14 @@
       <c r="D436" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" ht="21">
+      <c r="F436" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="21">
       <c r="A437" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B437" s="6" t="s">
@@ -8154,10 +9882,14 @@
       <c r="D437" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" ht="21">
+      <c r="F437" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="21">
       <c r="A438" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B438" s="6" t="s">
@@ -8169,10 +9901,14 @@
       <c r="D438" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" ht="21">
+      <c r="F438" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" ht="21">
       <c r="A439" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B439" s="6" t="s">
@@ -8184,10 +9920,14 @@
       <c r="D439" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" ht="21">
+      <c r="F439" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" ht="21">
       <c r="A440" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B440" s="6" t="s">
@@ -8199,10 +9939,14 @@
       <c r="D440" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" ht="21">
+      <c r="F440" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="21">
       <c r="A441" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B441" s="6" t="s">
@@ -8214,10 +9958,14 @@
       <c r="D441" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" ht="21">
+      <c r="F441" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" ht="21">
       <c r="A442" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B442" s="6" t="s">
@@ -8229,10 +9977,14 @@
       <c r="D442" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" ht="21">
+      <c r="F442" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="21">
       <c r="A443" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B443" s="6" t="s">
@@ -8244,10 +9996,14 @@
       <c r="D443" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" ht="21">
+      <c r="F443" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" ht="21">
       <c r="A444" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B444" s="6" t="s">
@@ -8259,10 +10015,14 @@
       <c r="D444" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" ht="21">
+      <c r="F444" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="21">
       <c r="A445" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B445" s="6" t="s">
@@ -8274,10 +10034,14 @@
       <c r="D445" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" ht="21">
+      <c r="F445" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="21">
       <c r="A446" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B446" s="6" t="s">
@@ -8289,10 +10053,14 @@
       <c r="D446" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" ht="21">
+      <c r="F446" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="21">
       <c r="A447" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B447" s="6" t="s">
@@ -8304,10 +10072,14 @@
       <c r="D447" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" ht="21">
+      <c r="F447" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" ht="21">
       <c r="A448" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B448" s="6" t="s">
@@ -8319,10 +10091,14 @@
       <c r="D448" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" ht="21">
+      <c r="F448" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" ht="21">
       <c r="A449" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B449" s="6" t="s">
@@ -8334,10 +10110,14 @@
       <c r="D449" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" ht="21">
+      <c r="F449" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" ht="21">
       <c r="A450" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B450" s="6" t="s">
@@ -8349,10 +10129,14 @@
       <c r="D450" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" ht="21">
+      <c r="F450" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="21">
       <c r="A451" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B451" s="6" t="s">
@@ -8364,10 +10148,14 @@
       <c r="D451" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" ht="21">
+      <c r="F451" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="21">
       <c r="A452" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B452" s="6" t="s">
@@ -8379,10 +10167,14 @@
       <c r="D452" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" ht="21">
+      <c r="F452" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="21">
       <c r="A453" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B453" s="6" t="s">
@@ -8394,10 +10186,14 @@
       <c r="D453" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" ht="21">
+      <c r="F453" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="21">
       <c r="A454" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B454" s="6" t="s">
@@ -8409,10 +10205,14 @@
       <c r="D454" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" ht="21">
+      <c r="F454" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="21">
       <c r="A455" s="2">
-        <f t="shared" ref="A455:A481" si="7">IF(D455="NO",0,1)</f>
+        <f t="shared" ref="A455:A481" si="14">IF(D455="NO",0,1)</f>
         <v>0</v>
       </c>
       <c r="B455" s="6" t="s">
@@ -8424,10 +10224,14 @@
       <c r="D455" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" ht="42">
+      <c r="F455" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="42">
       <c r="A456" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B456" s="6" t="s">
@@ -8439,10 +10243,14 @@
       <c r="D456" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" ht="21">
+      <c r="F456" s="2" t="b">
+        <f t="shared" ref="F456:F481" si="15">IF(A456=1,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" ht="21">
       <c r="A457" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B457" s="6" t="s">
@@ -8454,10 +10262,14 @@
       <c r="D457" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" ht="21">
+      <c r="F457" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="21">
       <c r="A458" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B458" s="6" t="s">
@@ -8469,10 +10281,14 @@
       <c r="D458" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" ht="21">
+      <c r="F458" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="21">
       <c r="A459" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B459" s="6" t="s">
@@ -8484,10 +10300,14 @@
       <c r="D459" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" ht="21">
+      <c r="F459" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="21">
       <c r="A460" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B460" s="6" t="s">
@@ -8499,10 +10319,14 @@
       <c r="D460" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" ht="21">
+      <c r="F460" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="21">
       <c r="A461" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B461" s="6" t="s">
@@ -8514,10 +10338,14 @@
       <c r="D461" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" ht="21">
+      <c r="F461" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="21">
       <c r="A462" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B462" s="6" t="s">
@@ -8529,10 +10357,14 @@
       <c r="D462" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" ht="21">
+      <c r="F462" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="21">
       <c r="A463" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B463" s="6" t="s">
@@ -8544,10 +10376,14 @@
       <c r="D463" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" ht="21">
+      <c r="F463" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="21">
       <c r="A464" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B464" s="6" t="s">
@@ -8559,10 +10395,14 @@
       <c r="D464" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" ht="21">
+      <c r="F464" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" ht="21">
       <c r="A465" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B465" s="6" t="s">
@@ -8574,10 +10414,14 @@
       <c r="D465" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" ht="21">
+      <c r="F465" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" ht="21">
       <c r="A466" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B466" s="6" t="s">
@@ -8589,10 +10433,14 @@
       <c r="D466" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" ht="21">
+      <c r="F466" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" ht="21">
       <c r="A467" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B467" s="6" t="s">
@@ -8604,10 +10452,14 @@
       <c r="D467" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" ht="21">
+      <c r="F467" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" ht="21">
       <c r="A468" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B468" s="6" t="s">
@@ -8619,10 +10471,14 @@
       <c r="D468" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" ht="21">
+      <c r="F468" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="21">
       <c r="A469" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B469" s="6" t="s">
@@ -8634,17 +10490,29 @@
       <c r="D469" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" ht="21">
+      <c r="F469" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" ht="21">
       <c r="C470" s="1"/>
-    </row>
-    <row r="471" spans="1:4" ht="21">
+      <c r="F470" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="21">
       <c r="B471" s="9"/>
       <c r="C471" s="1"/>
-    </row>
-    <row r="472" spans="1:4" ht="21">
+      <c r="F471" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" ht="21">
       <c r="A472" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B472" s="6" t="s">
@@ -8656,10 +10524,14 @@
       <c r="D472" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" ht="21">
+      <c r="F472" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="21">
       <c r="A473" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B473" s="6" t="s">
@@ -8671,10 +10543,14 @@
       <c r="D473" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" ht="21">
+      <c r="F473" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="21">
       <c r="A474" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B474" s="6" t="s">
@@ -8686,10 +10562,14 @@
       <c r="D474" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" ht="21">
+      <c r="F474" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="21">
       <c r="A475" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B475" s="6" t="s">
@@ -8701,10 +10581,14 @@
       <c r="D475" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" ht="21">
+      <c r="F475" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="21">
       <c r="A476" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B476" s="6" t="s">
@@ -8716,10 +10600,14 @@
       <c r="D476" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" ht="21">
+      <c r="F476" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="21">
       <c r="A477" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B477" s="6" t="s">
@@ -8731,10 +10619,14 @@
       <c r="D477" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" ht="21">
+      <c r="F477" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="21">
       <c r="A478" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B478" s="6" t="s">
@@ -8746,10 +10638,14 @@
       <c r="D478" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" ht="21">
+      <c r="F478" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="21">
       <c r="A479" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B479" s="6" t="s">
@@ -8761,10 +10657,14 @@
       <c r="D479" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" ht="21">
+      <c r="F479" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" ht="21">
       <c r="A480" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B480" s="6" t="s">
@@ -8776,10 +10676,14 @@
       <c r="D480" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" ht="21">
+      <c r="F480" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" ht="21">
       <c r="A481" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B481" s="6" t="s">
@@ -8790,6 +10694,10 @@
       </c>
       <c r="D481" s="2" t="s">
         <v>464</v>
+      </c>
+      <c r="F481" s="2" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courses\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BCD027-D5CB-4A23-BE03-9072D1F35540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C2714-2939-4133-85A6-7DDBCAEA392E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="478">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1456,6 +1456,9 @@
   </si>
   <si>
     <t>traverse the array using i=0,j=0 and if a[i] is less than 0 and if a[i]!=a[j] then swap a[i],a[j] if not then just j++</t>
+  </si>
+  <si>
+    <t>We can use set&lt;int&gt; and traverse through both arrays and insert all elements to set and it avoids repetition so we get the union of 2 arrays</t>
   </si>
 </sst>
 </file>
@@ -1913,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1936,7 +1939,7 @@
       </c>
       <c r="F1" s="2">
         <f>SUM(F6:F481)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2">
         <v>450</v>
@@ -2070,10 +2073,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21">
+    <row r="11" spans="1:7" ht="31.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>4</v>
@@ -2082,11 +2085,14 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F11" s="2" t="b">
+        <v>467</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courses\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C2714-2939-4133-85A6-7DDBCAEA392E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF6EB0C-CB15-4DDF-9CF4-4DDB2D54752B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
